--- a/TestData/signin.xlsx
+++ b/TestData/signin.xlsx
@@ -4,22 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="10065" windowHeight="4125"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>E-Mail Address</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Password</t>
   </si>
@@ -54,7 +51,7 @@
     <t>abc456</t>
   </si>
   <si>
-    <t>Sr.No.</t>
+    <t>Email</t>
   </si>
 </sst>
 </file>
@@ -404,90 +401,70 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="29.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
